--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,145 +40,142 @@
     <t>name</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>whole</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>new</t>
@@ -187,46 +184,37 @@
     <t>many</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>facebook</t>
+    <t>world</t>
   </si>
   <si>
     <t>dilemma</t>
@@ -241,16 +229,19 @@
     <t>twitter</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>watched</t>
   </si>
   <si>
     <t>’</t>
@@ -614,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -757,13 +748,13 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,13 +798,13 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9519230769230769</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9242424242424242</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,13 +898,13 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>0.7017543859649122</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +998,13 @@
         <v>45</v>
       </c>
       <c r="K9">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>46</v>
@@ -1083,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K12">
-        <v>0.64</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K13">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,10 +1227,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>0.5925925925925926</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6956521739130435</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>0.5789473684210527</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>0.5454545454545454</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6875</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K17">
-        <v>0.5277777777777778</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6595744680851063</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.4230769230769231</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6594202898550725</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C19">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K19">
-        <v>0.4067796610169492</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K20">
-        <v>0.3658536585365854</v>
+        <v>0.3224043715846995</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K21">
-        <v>0.3541666666666667</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L21">
         <v>17</v>
@@ -1625,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K22">
-        <v>0.3214285714285715</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K23">
-        <v>0.3142076502732241</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L23">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>753</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1724,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K24">
-        <v>0.2769230769230769</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1798,13 @@
         <v>61</v>
       </c>
       <c r="K25">
-        <v>0.2647058823529412</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1824,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K26">
-        <v>0.2592592592592592</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1874,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5428571428571428</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K27">
-        <v>0.2571428571428571</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1924,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5357142857142857</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K28">
-        <v>0.2459016393442623</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1975,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,13 +1974,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2001,31 +1992,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K29">
-        <v>0.2421052631578947</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,7 +2024,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -2051,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K30">
-        <v>0.2195121951219512</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -2075,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2083,13 +2074,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2101,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K31">
-        <v>0.2</v>
+        <v>0.09841269841269841</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2125,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>68</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,37 +2124,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2051282051282051</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K32">
-        <v>0.1690140845070423</v>
+        <v>0.09074074074074075</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2175,45 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="C33">
-        <v>15</v>
-      </c>
-      <c r="D33">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>0.21</v>
-      </c>
-      <c r="F33">
-        <v>0.79</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>280</v>
-      </c>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K33">
-        <v>0.1643835616438356</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2225,47 +2192,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K34">
-        <v>0.1282051282051282</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M34">
         <v>11</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K35">
-        <v>0.09841269841269841</v>
+        <v>0.07467532467532467</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2277,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K36">
-        <v>0.09444444444444444</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2303,47 +2270,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K37">
-        <v>0.09036144578313253</v>
+        <v>0.06764705882352941</v>
       </c>
       <c r="L37">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K38">
-        <v>0.08029197080291971</v>
+        <v>0.05817972350230415</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2355,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K39">
-        <v>0.07949308755760369</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="L39">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2381,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K40">
-        <v>0.07773851590106007</v>
+        <v>0.03713188220230474</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2407,85 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="L41">
-        <v>44</v>
-      </c>
-      <c r="M41">
-        <v>44</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.06744868035190615</v>
-      </c>
-      <c r="L42">
-        <v>23</v>
-      </c>
-      <c r="M42">
-        <v>23</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.03461538461538462</v>
-      </c>
-      <c r="L43">
-        <v>27</v>
-      </c>
-      <c r="M43">
-        <v>28</v>
-      </c>
-      <c r="N43">
-        <v>0.96</v>
-      </c>
-      <c r="O43">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
